--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.121019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.121019.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3627,12 +3627,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4239,12 +4239,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4319,12 +4319,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4357,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5433,12 +5433,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5585,12 +5585,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5775,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6003,12 +6003,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6117,12 +6117,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6383,12 +6383,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6421,12 +6421,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6459,12 +6459,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7181,12 +7181,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7409,12 +7409,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7447,12 +7447,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7717,12 +7717,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8439,12 +8439,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8705,12 +8705,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8819,12 +8819,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8895,12 +8895,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9617,12 +9617,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10153,12 +10153,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10191,12 +10191,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10229,12 +10229,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10799,12 +10799,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11411,12 +11411,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11563,12 +11563,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11601,12 +11601,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11753,12 +11753,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11867,12 +11867,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12555,12 +12555,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13011,12 +13011,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13125,12 +13125,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13353,12 +13353,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13961,12 +13961,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14037,12 +14037,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14911,12 +14911,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15101,12 +15101,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16321,12 +16321,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16663,12 +16663,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16891,12 +16891,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17271,12 +17271,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17575,12 +17575,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17689,12 +17689,12 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17803,12 +17803,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18909,12 +18909,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19445,12 +19445,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19981,12 +19981,12 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20019,12 +20019,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20403,12 +20403,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20707,12 +20707,12 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20973,12 +20973,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21277,12 +21277,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21353,12 +21353,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21505,12 +21505,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21581,12 +21581,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21657,12 +21657,12 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22421,12 +22421,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22497,12 +22497,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22535,12 +22535,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22573,12 +22573,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22839,12 +22839,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22953,12 +22953,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23143,12 +23143,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23181,12 +23181,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23333,12 +23333,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23485,12 +23485,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24515,12 +24515,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24933,12 +24933,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25275,12 +25275,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25313,12 +25313,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26149,12 +26149,12 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
